--- a/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>RGIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -919,14 +946,20 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,31 +1123,33 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1108,16 +1161,22 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,20 +1187,20 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
@@ -1152,16 +1211,22 @@
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,32 +1389,38 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
-      </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
-      </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
@@ -1346,16 +1431,22 @@
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,32 +1539,38 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
-      </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
-      </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
@@ -1478,16 +1581,22 @@
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1501,37 +1610,43 @@
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1889,14 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1765,37 +1910,43 @@
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1989,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1853,86 +2010,98 @@
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2006,13 +2179,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2081,26 +2266,32 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2161,34 +2358,40 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2205,34 +2408,40 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2273,10 +2482,16 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2784,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2557,34 +2808,40 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2640,10 +2901,10 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -2663,13 +2924,19 @@
       <c r="P57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -2681,22 +2948,22 @@
         <v>500</v>
       </c>
       <c r="H58" s="3">
+        <v>500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>500</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
@@ -2707,96 +2974,114 @@
       <c r="P58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F60" s="3">
         <v>3700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F66" s="3">
         <v>3700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-13900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-13600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-13300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-13200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-13000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-12800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-12600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-12400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-12100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3894,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3581,37 +3970,43 @@
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,20 +4334,20 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -3922,22 +4355,28 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4112,8 +4571,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4121,17 +4580,23 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,43 +4824,49 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4451,9 +4954,15 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>RGIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -952,14 +966,17 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,8 +1054,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1043,11 +1063,11 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1055,11 +1075,14 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1137,10 +1164,10 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1149,10 +1176,10 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>-100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1167,16 +1194,19 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
       </c>
       <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1187,11 +1217,11 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
@@ -1199,11 +1229,11 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
@@ -1217,16 +1247,19 @@
         <v>-200</v>
       </c>
       <c r="P18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1407,11 +1450,11 @@
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
@@ -1419,11 +1462,11 @@
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
@@ -1437,16 +1480,19 @@
         <v>-200</v>
       </c>
       <c r="P23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-300</v>
       </c>
       <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1557,11 +1609,11 @@
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
@@ -1569,11 +1621,11 @@
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>-200</v>
-      </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
@@ -1587,16 +1639,19 @@
         <v>-200</v>
       </c>
       <c r="P26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-300</v>
       </c>
       <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1616,20 +1671,20 @@
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>-200</v>
-      </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>-200</v>
-      </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
@@ -1637,16 +1692,19 @@
         <v>-200</v>
       </c>
       <c r="P27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-300</v>
       </c>
       <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1916,20 +1989,20 @@
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>-200</v>
-      </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>-200</v>
-      </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
@@ -1937,16 +2010,19 @@
         <v>-200</v>
       </c>
       <c r="P33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-300</v>
       </c>
       <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2016,20 +2095,20 @@
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>-200</v>
-      </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>-200</v>
-      </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
@@ -2037,71 +2116,77 @@
         <v>-200</v>
       </c>
       <c r="P35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-300</v>
       </c>
       <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2185,13 +2272,16 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2272,26 +2365,29 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2364,25 +2463,25 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2414,16 +2516,16 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
@@ -2432,16 +2534,19 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2488,10 +2593,13 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2814,16 +2940,16 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
@@ -2832,16 +2958,19 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
       </c>
       <c r="R54" s="3">
+        <v>200</v>
+      </c>
+      <c r="S54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2907,7 +3038,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2939,7 +3073,7 @@
         <v>600</v>
       </c>
       <c r="E58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
@@ -2954,10 +3088,10 @@
         <v>500</v>
       </c>
       <c r="J58" s="3">
+        <v>500</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
@@ -2966,7 +3100,7 @@
         <v>300</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
@@ -2980,108 +3114,117 @@
       <c r="R58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E59" s="3">
         <v>3500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1800</v>
       </c>
       <c r="P59" s="3">
         <v>1800</v>
       </c>
       <c r="Q59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
         <v>4100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3100</v>
       </c>
       <c r="K60" s="3">
         <v>3100</v>
       </c>
       <c r="L60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M60" s="3">
         <v>2900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3100</v>
       </c>
       <c r="K66" s="3">
         <v>3100</v>
       </c>
       <c r="L66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3976,20 +4171,20 @@
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>-200</v>
-      </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>-200</v>
-      </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
@@ -3997,16 +4192,19 @@
         <v>-200</v>
       </c>
       <c r="P81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-300</v>
       </c>
       <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4334,11 +4551,11 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -4346,11 +4563,11 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -4361,22 +4578,25 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4577,14 +4807,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
@@ -4592,11 +4822,14 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4824,11 +5070,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -4836,13 +5082,13 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4851,11 +5097,11 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4960,9 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>RGIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,92 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +802,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +861,14 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +920,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,14 +996,20 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1061,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,32 +1096,38 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1203,10 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,31 +1214,31 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
@@ -1197,16 +1250,22 @@
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,32 +1273,32 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
@@ -1250,16 +1309,22 @@
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1344,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1399,14 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1458,14 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1517,14 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,32 +1532,32 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
-      </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
@@ -1483,16 +1568,22 @@
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1694,14 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,32 +1709,32 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
-      </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
@@ -1642,16 +1745,22 @@
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,7 +1768,7 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
@@ -1674,37 +1783,43 @@
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
-      </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2048,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2107,14 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,7 +2122,7 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
@@ -1992,37 +2137,43 @@
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
-      </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2225,14 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,7 +2240,7 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
@@ -2098,95 +2255,107 @@
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
-      </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2398,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2275,13 +2448,19 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2512,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2368,26 +2553,32 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2630,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2466,34 +2663,40 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2519,34 +2722,40 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2596,10 +2805,16 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2866,14 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3043,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3102,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3161,14 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2943,34 +3194,40 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3270,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3041,10 +3302,10 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -3064,8 +3325,14 @@
       <c r="S57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>300</v>
+      </c>
+      <c r="U57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3076,10 +3343,10 @@
         <v>600</v>
       </c>
       <c r="F58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
@@ -3091,22 +3358,22 @@
         <v>500</v>
       </c>
       <c r="K58" s="3">
+        <v>500</v>
+      </c>
+      <c r="L58" s="3">
+        <v>500</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
@@ -3117,114 +3384,132 @@
       <c r="S58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+      <c r="U58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E59" s="3">
         <v>3600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G60" s="3">
         <v>4100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3561,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3620,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G66" s="3">
         <v>4100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-14500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-14300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-14100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-13900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-13600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-13300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-13000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-12800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-12400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-12100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G76" s="3">
         <v>-4100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4469,78 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,7 +4548,7 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
@@ -4174,37 +4563,43 @@
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
-      </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4619,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4674,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4969,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4554,26 +4987,26 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4581,22 +5014,28 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5055,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +5110,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5228,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4810,8 +5269,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4819,17 +5278,23 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5546,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5073,49 +5564,55 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5664,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5215,9 +5718,15 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>RGIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1002,14 +1016,17 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1102,8 +1122,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1111,11 +1131,11 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1123,11 +1143,14 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1214,10 +1241,10 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -1226,10 +1253,10 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1238,10 +1265,10 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>-100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1256,16 +1283,19 @@
         <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
       </c>
       <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,10 +1303,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
@@ -1285,11 +1315,11 @@
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
@@ -1297,11 +1327,11 @@
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
@@ -1315,16 +1345,19 @@
         <v>-200</v>
       </c>
       <c r="S18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-300</v>
       </c>
       <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,8 +1501,11 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,8 +1563,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1532,10 +1575,10 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
@@ -1544,11 +1587,11 @@
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>-200</v>
-      </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
@@ -1556,11 +1599,11 @@
         <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
-        <v>-200</v>
-      </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
@@ -1574,16 +1617,19 @@
         <v>-200</v>
       </c>
       <c r="S23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>-300</v>
       </c>
       <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1709,10 +1761,10 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
@@ -1721,11 +1773,11 @@
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>-200</v>
-      </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
@@ -1733,11 +1785,11 @@
         <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>-200</v>
-      </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
@@ -1751,27 +1803,30 @@
         <v>-200</v>
       </c>
       <c r="S26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-300</v>
       </c>
       <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
@@ -1789,20 +1844,20 @@
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>-200</v>
-      </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q27" s="3">
         <v>-200</v>
       </c>
@@ -1810,16 +1865,19 @@
         <v>-200</v>
       </c>
       <c r="S27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T27" s="3">
         <v>-300</v>
       </c>
       <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,19 +2183,22 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
@@ -2143,20 +2216,20 @@
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>-200</v>
-      </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
@@ -2164,16 +2237,19 @@
         <v>-200</v>
       </c>
       <c r="S33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T33" s="3">
         <v>-300</v>
       </c>
       <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,19 +2307,22 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
@@ -2261,20 +2340,20 @@
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>-200</v>
-      </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
@@ -2282,80 +2361,86 @@
         <v>-200</v>
       </c>
       <c r="S35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T35" s="3">
         <v>-300</v>
       </c>
       <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2454,13 +2541,16 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2559,26 +2652,29 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2669,25 +2768,25 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2728,16 +2830,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
@@ -2746,16 +2848,19 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
       <c r="U46" s="3">
+        <v>200</v>
+      </c>
+      <c r="V46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2811,10 +2916,13 @@
         <v>0</v>
       </c>
       <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3290,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3200,16 +3326,16 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
@@ -3218,16 +3344,19 @@
         <v>100</v>
       </c>
       <c r="S54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T54" s="3">
         <v>200</v>
       </c>
       <c r="U54" s="3">
+        <v>200</v>
+      </c>
+      <c r="V54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3308,7 +3439,7 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3349,7 +3483,7 @@
         <v>600</v>
       </c>
       <c r="H58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I58" s="3">
         <v>500</v>
@@ -3364,10 +3498,10 @@
         <v>500</v>
       </c>
       <c r="M58" s="3">
+        <v>500</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
@@ -3376,7 +3510,7 @@
         <v>300</v>
       </c>
       <c r="Q58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
@@ -3390,126 +3524,135 @@
       <c r="U58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>3600</v>
       </c>
       <c r="F59" s="3">
         <v>3600</v>
       </c>
       <c r="G59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1800</v>
       </c>
       <c r="S59" s="3">
         <v>1800</v>
       </c>
       <c r="T59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
         <v>4500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>4300</v>
       </c>
       <c r="F60" s="3">
         <v>4300</v>
       </c>
       <c r="G60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>3100</v>
       </c>
       <c r="N60" s="3">
         <v>3100</v>
       </c>
       <c r="O60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P60" s="3">
         <v>2900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>4300</v>
       </c>
       <c r="F66" s="3">
         <v>4300</v>
       </c>
       <c r="G66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H66" s="3">
         <v>4100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3100</v>
       </c>
       <c r="N66" s="3">
         <v>3100</v>
       </c>
       <c r="O66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P66" s="3">
         <v>2900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14800</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-14600</v>
       </c>
       <c r="F72" s="3">
         <v>-14600</v>
       </c>
       <c r="G72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="H72" s="3">
         <v>-14500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-4300</v>
       </c>
       <c r="F76" s="3">
         <v>-4300</v>
       </c>
       <c r="G76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H76" s="3">
         <v>-4100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,83 +4664,89 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
@@ -4569,20 +4764,20 @@
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>-200</v>
-      </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
@@ -4590,16 +4785,19 @@
         <v>-200</v>
       </c>
       <c r="S81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T81" s="3">
         <v>-300</v>
       </c>
       <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4993,11 +5210,11 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -5005,11 +5222,11 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -5020,22 +5237,25 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5275,14 +5505,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
@@ -5290,11 +5520,14 @@
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5570,11 +5816,11 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -5582,13 +5828,13 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5597,11 +5843,11 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5724,9 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>RGIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1019,14 +1033,17 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1125,8 +1145,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1134,11 +1154,11 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1146,11 +1166,14 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1244,10 +1271,10 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1256,10 +1283,10 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1268,10 +1295,10 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>-100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1286,16 +1313,19 @@
         <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>300</v>
       </c>
       <c r="V17" s="3">
+        <v>300</v>
+      </c>
+      <c r="W17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1306,10 +1336,10 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
@@ -1318,11 +1348,11 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
@@ -1330,11 +1360,11 @@
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
@@ -1348,16 +1378,19 @@
         <v>-200</v>
       </c>
       <c r="T18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-300</v>
       </c>
       <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1578,10 +1621,10 @@
         <v>-200</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
@@ -1590,11 +1633,11 @@
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
@@ -1602,11 +1645,11 @@
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
-        <v>-200</v>
-      </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
@@ -1620,16 +1663,19 @@
         <v>-200</v>
       </c>
       <c r="T23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-300</v>
       </c>
       <c r="V23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1764,10 +1816,10 @@
         <v>-200</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
@@ -1776,11 +1828,11 @@
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>-200</v>
-      </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
@@ -1788,11 +1840,11 @@
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
-        <v>-200</v>
-      </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
@@ -1806,30 +1858,33 @@
         <v>-200</v>
       </c>
       <c r="T26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-300</v>
       </c>
       <c r="V26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
-        <v>-200</v>
-      </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
@@ -1847,20 +1902,20 @@
         <v>-200</v>
       </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
-        <v>-200</v>
-      </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
-      </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
@@ -1868,16 +1923,19 @@
         <v>-200</v>
       </c>
       <c r="T27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>-300</v>
       </c>
       <c r="V27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,22 +2256,25 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
-        <v>-200</v>
-      </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
@@ -2219,20 +2292,20 @@
         <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
-        <v>-200</v>
-      </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
-      </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
@@ -2240,16 +2313,19 @@
         <v>-200</v>
       </c>
       <c r="T33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U33" s="3">
         <v>-300</v>
       </c>
       <c r="V33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,22 +2386,25 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
-        <v>-200</v>
-      </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
@@ -2343,20 +2422,20 @@
         <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
-        <v>-200</v>
-      </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
-      </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
@@ -2364,83 +2443,89 @@
         <v>-200</v>
       </c>
       <c r="T35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U35" s="3">
         <v>-300</v>
       </c>
       <c r="V35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2544,13 +2631,16 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2655,26 +2748,29 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2771,25 +2870,25 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2833,16 +2935,16 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
@@ -2851,16 +2953,19 @@
         <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
         <v>200</v>
       </c>
       <c r="V46" s="3">
+        <v>200</v>
+      </c>
+      <c r="W46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2919,10 +3024,13 @@
         <v>0</v>
       </c>
       <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3329,16 +3455,16 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
@@ -3347,16 +3473,19 @@
         <v>100</v>
       </c>
       <c r="T54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U54" s="3">
         <v>200</v>
       </c>
       <c r="V54" s="3">
+        <v>200</v>
+      </c>
+      <c r="W54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3442,7 +3573,7 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3486,7 +3620,7 @@
         <v>600</v>
       </c>
       <c r="I58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
@@ -3501,10 +3635,10 @@
         <v>500</v>
       </c>
       <c r="N58" s="3">
+        <v>500</v>
+      </c>
+      <c r="O58" s="3">
         <v>400</v>
-      </c>
-      <c r="O58" s="3">
-        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
@@ -3513,7 +3647,7 @@
         <v>300</v>
       </c>
       <c r="R58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>200</v>
@@ -3527,132 +3661,141 @@
       <c r="V58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>3600</v>
       </c>
       <c r="G59" s="3">
         <v>3600</v>
       </c>
       <c r="H59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2000</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1800</v>
       </c>
       <c r="T59" s="3">
         <v>1800</v>
       </c>
       <c r="U59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V59" s="3">
         <v>1500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4300</v>
       </c>
       <c r="G60" s="3">
         <v>4300</v>
       </c>
       <c r="H60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>3100</v>
       </c>
       <c r="O60" s="3">
         <v>3100</v>
       </c>
       <c r="P60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4300</v>
       </c>
       <c r="G66" s="3">
         <v>4300</v>
       </c>
       <c r="H66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>3100</v>
       </c>
       <c r="O66" s="3">
         <v>3100</v>
       </c>
       <c r="P66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-14600</v>
       </c>
       <c r="G72" s="3">
         <v>-14600</v>
       </c>
       <c r="H72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="I72" s="3">
         <v>-14500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-4300</v>
       </c>
       <c r="G76" s="3">
         <v>-4300</v>
       </c>
       <c r="H76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I76" s="3">
         <v>-4100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,89 +4856,95 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
-        <v>-200</v>
-      </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
@@ -4767,20 +4962,20 @@
         <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
-        <v>-200</v>
-      </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
-      </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
@@ -4788,16 +4983,19 @@
         <v>-200</v>
       </c>
       <c r="T81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U81" s="3">
         <v>-300</v>
       </c>
       <c r="V81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5213,11 +5430,11 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -5225,11 +5442,11 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -5240,22 +5457,25 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5508,14 +5738,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
@@ -5523,11 +5753,14 @@
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5819,11 +6065,11 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -5831,13 +6077,13 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5846,11 +6092,11 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5979,9 +6231,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>RGIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +829,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +900,14 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +971,14 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1002,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1036,14 +1063,20 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1140,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1148,32 +1187,38 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1282,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,52 +1310,54 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
@@ -1316,16 +1369,22 @@
         <v>200</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,44 +1392,44 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
-      </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
@@ -1381,16 +1440,22 @@
         <v>-200</v>
       </c>
       <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1479,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1546,14 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1617,14 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1688,14 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1618,44 +1703,44 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
-      </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
-      </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
@@ -1666,16 +1751,22 @@
         <v>-200</v>
       </c>
       <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1830,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1901,14 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,44 +1916,44 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
-      </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
-      </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
@@ -1861,16 +1964,22 @@
         <v>-200</v>
       </c>
       <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1884,13 +1993,13 @@
         <v>-200</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
@@ -1905,37 +2014,43 @@
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-200</v>
-      </c>
       <c r="T27" s="3">
         <v>-200</v>
       </c>
       <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2114,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2185,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2327,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2398,14 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2274,13 +2419,13 @@
         <v>-200</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
@@ -2295,37 +2440,43 @@
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-200</v>
-      </c>
       <c r="T33" s="3">
         <v>-200</v>
       </c>
       <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2540,14 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2404,13 +2561,13 @@
         <v>-200</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
@@ -2425,107 +2582,119 @@
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-200</v>
-      </c>
       <c r="T35" s="3">
         <v>-200</v>
       </c>
       <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2745,10 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2634,13 +2807,19 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2883,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2751,26 +2936,32 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +3025,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2873,34 +3070,40 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2938,34 +3141,40 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
         <v>100</v>
       </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3027,10 +3236,16 @@
         <v>0</v>
       </c>
       <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3309,14 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3380,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3522,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3593,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3664,14 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3458,34 +3709,40 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
         <v>100</v>
       </c>
       <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3793,10 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3576,10 +3837,10 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
@@ -3599,8 +3860,14 @@
       <c r="W57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3623,10 +3890,10 @@
         <v>600</v>
       </c>
       <c r="J58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>500</v>
@@ -3638,22 +3905,22 @@
         <v>500</v>
       </c>
       <c r="O58" s="3">
+        <v>500</v>
+      </c>
+      <c r="P58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>400</v>
-      </c>
-      <c r="P58" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
       </c>
       <c r="S58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U58" s="3">
         <v>200</v>
@@ -3664,138 +3931,156 @@
       <c r="W58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4144,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4215,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4428,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4810,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-15200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-15000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-14800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-14600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-14600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-14500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-14300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-14100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-13600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-13300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-13200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-13000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-12800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-12600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-12400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-12100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5094,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-2200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-2000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5236,90 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4944,13 +5333,13 @@
         <v>-200</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
@@ -4965,37 +5354,43 @@
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-200</v>
-      </c>
       <c r="T81" s="3">
         <v>-200</v>
       </c>
       <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5414,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5481,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5836,14 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5433,26 +5866,26 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -5460,22 +5893,28 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-200</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5938,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +6005,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6147,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5741,8 +6200,8 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5750,17 +6209,23 @@
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6529,14 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6068,49 +6559,55 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6671,14 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6234,9 +6737,15 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
@@ -1321,7 +1321,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -1392,7 +1392,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
@@ -1703,7 +1703,7 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
@@ -1916,7 +1916,7 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
@@ -1987,7 +1987,7 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
@@ -2413,7 +2413,7 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
@@ -2555,7 +2555,7 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
@@ -3946,7 +3946,7 @@
         <v>4400</v>
       </c>
       <c r="E59" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="F59" s="3">
         <v>4200</v>
@@ -4017,7 +4017,7 @@
         <v>5100</v>
       </c>
       <c r="E60" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="F60" s="3">
         <v>4900</v>
@@ -4443,7 +4443,7 @@
         <v>5100</v>
       </c>
       <c r="E66" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="F66" s="3">
         <v>4900</v>
@@ -4825,7 +4825,7 @@
         <v>-15500</v>
       </c>
       <c r="E72" s="3">
-        <v>-15500</v>
+        <v>-15300</v>
       </c>
       <c r="F72" s="3">
         <v>-15200</v>
@@ -5109,7 +5109,7 @@
         <v>-5100</v>
       </c>
       <c r="E76" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="F76" s="3">
         <v>-4800</v>
@@ -5327,7 +5327,7 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>

--- a/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>RGIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +843,14 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1069,14 +1097,20 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X12" s="3">
-        <v>0</v>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1193,32 +1233,38 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,58 +1364,60 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
@@ -1375,16 +1429,22 @@
         <v>200</v>
       </c>
       <c r="W17" s="3">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,50 +1452,50 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
       <c r="G18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
-      </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
@@ -1446,16 +1506,22 @@
         <v>-200</v>
       </c>
       <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1552,8 +1620,14 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1623,8 +1697,14 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,8 +1774,14 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1703,50 +1789,50 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
-      </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-200</v>
-      </c>
       <c r="T23" s="3">
         <v>-200</v>
       </c>
@@ -1757,16 +1843,22 @@
         <v>-200</v>
       </c>
       <c r="W23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,8 +2005,14 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1916,50 +2020,50 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
-      </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-200</v>
-      </c>
       <c r="T26" s="3">
         <v>-200</v>
       </c>
@@ -1970,16 +2074,22 @@
         <v>-200</v>
       </c>
       <c r="W26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1987,25 +2097,25 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-200</v>
@@ -2020,37 +2130,43 @@
         <v>-200</v>
       </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-200</v>
-      </c>
       <c r="V27" s="3">
         <v>-200</v>
       </c>
       <c r="W27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2404,8 +2544,14 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2413,25 +2559,25 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
@@ -2446,37 +2592,43 @@
         <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-200</v>
-      </c>
       <c r="V33" s="3">
         <v>-200</v>
       </c>
       <c r="W33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,8 +2698,14 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2555,25 +2713,25 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
@@ -2588,113 +2746,125 @@
         <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-200</v>
-      </c>
       <c r="V35" s="3">
         <v>-200</v>
       </c>
       <c r="W35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2919,10 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2813,13 +2987,19 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2942,26 +3128,32 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
         <v>100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3076,34 +3274,40 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
-      </c>
-      <c r="U45" s="3">
-        <v>100</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3147,34 +3351,40 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>100</v>
       </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3242,10 +3452,16 @@
         <v>0</v>
       </c>
       <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3315,8 +3531,14 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3916,14 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3715,34 +3967,40 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>100</v>
       </c>
       <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +4055,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3843,10 +4105,10 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
@@ -3866,8 +4128,14 @@
       <c r="Y57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3896,10 +4164,10 @@
         <v>600</v>
       </c>
       <c r="L58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N58" s="3">
         <v>500</v>
@@ -3911,22 +4179,22 @@
         <v>500</v>
       </c>
       <c r="Q58" s="3">
+        <v>500</v>
+      </c>
+      <c r="R58" s="3">
+        <v>500</v>
+      </c>
+      <c r="S58" s="3">
         <v>400</v>
-      </c>
-      <c r="R58" s="3">
-        <v>300</v>
-      </c>
-      <c r="S58" s="3">
-        <v>300</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
       </c>
       <c r="U58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W58" s="3">
         <v>200</v>
@@ -3937,150 +4205,168 @@
       <c r="Y58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F59" s="3">
         <v>4400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F66" s="3">
         <v>5100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-15500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-15300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-15200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-15000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-14800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-14600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-14600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-14500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-14300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-14100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-13900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-13800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-13300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-13400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-13200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-13000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-12800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-12600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-12400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-12100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-5000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-2600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-2400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-2200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-2000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,84 +5620,96 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5327,25 +5717,25 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
@@ -5360,37 +5750,43 @@
         <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-200</v>
-      </c>
       <c r="V81" s="3">
         <v>-200</v>
       </c>
       <c r="W81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6270,14 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5872,26 +6306,26 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -5899,22 +6333,28 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6206,8 +6666,8 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -6215,17 +6675,23 @@
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6565,49 +7057,55 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6743,9 +7247,15 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>RGIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,122 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +856,14 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +939,14 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1022,14 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1103,14 +1130,20 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z12" s="3">
-        <v>0</v>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1219,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1239,32 +1278,38 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,64 +1417,66 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
       <c r="U17" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
@@ -1435,16 +1488,22 @@
         <v>200</v>
       </c>
       <c r="Y17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,56 +1511,56 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
-      </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-200</v>
-      </c>
       <c r="V18" s="3">
         <v>-200</v>
       </c>
@@ -1512,16 +1571,22 @@
         <v>-200</v>
       </c>
       <c r="Y18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1614,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,25 +1693,31 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1703,8 +1776,14 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,13 +1859,19 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
@@ -1795,50 +1880,50 @@
         <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
-      </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-200</v>
-      </c>
       <c r="V23" s="3">
         <v>-200</v>
       </c>
@@ -1849,16 +1934,22 @@
         <v>-200</v>
       </c>
       <c r="Y23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,13 +2108,19 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
@@ -2026,50 +2129,50 @@
         <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
       <c r="M26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
-      </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-200</v>
-      </c>
       <c r="V26" s="3">
         <v>-200</v>
       </c>
@@ -2080,21 +2183,27 @@
         <v>-200</v>
       </c>
       <c r="Y26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
@@ -2103,25 +2212,25 @@
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>-200</v>
       </c>
       <c r="M27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
@@ -2136,37 +2245,43 @@
         <v>-200</v>
       </c>
       <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-200</v>
-      </c>
       <c r="X27" s="3">
         <v>-200</v>
       </c>
       <c r="Y27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2606,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2550,13 +2689,19 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
@@ -2565,25 +2710,25 @@
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>-200</v>
       </c>
       <c r="M33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
@@ -2598,37 +2743,43 @@
         <v>-200</v>
       </c>
       <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-200</v>
-      </c>
       <c r="X33" s="3">
         <v>-200</v>
       </c>
       <c r="Y33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,13 +2855,19 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
@@ -2719,25 +2876,25 @@
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>-200</v>
       </c>
       <c r="M35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
@@ -2752,119 +2909,131 @@
         <v>-200</v>
       </c>
       <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-200</v>
-      </c>
       <c r="X35" s="3">
         <v>-200</v>
       </c>
       <c r="Y35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,13 +3092,15 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>11800</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2993,13 +3166,19 @@
         <v>0</v>
       </c>
       <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
         <v>100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3254,14 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3134,26 +3319,32 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
         <v>100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>100</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3420,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3280,39 +3477,45 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <v>100</v>
-      </c>
-      <c r="W45" s="3">
-        <v>100</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>11800</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -3357,34 +3560,40 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X46" s="3">
         <v>100</v>
       </c>
       <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3458,10 +3667,16 @@
         <v>0</v>
       </c>
       <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3537,8 +3752,14 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3835,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,31 +4001,37 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3845,8 +4084,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,13 +4167,19 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>11800</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3973,34 +4224,40 @@
         <v>0</v>
       </c>
       <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
         <v>100</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X54" s="3">
         <v>100</v>
       </c>
       <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,13 +4316,15 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -4111,10 +4372,10 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
@@ -4134,8 +4395,14 @@
       <c r="AA57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4170,10 +4437,10 @@
         <v>600</v>
       </c>
       <c r="N58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P58" s="3">
         <v>500</v>
@@ -4185,22 +4452,22 @@
         <v>500</v>
       </c>
       <c r="S58" s="3">
+        <v>500</v>
+      </c>
+      <c r="T58" s="3">
+        <v>500</v>
+      </c>
+      <c r="U58" s="3">
         <v>400</v>
-      </c>
-      <c r="T58" s="3">
-        <v>300</v>
-      </c>
-      <c r="U58" s="3">
-        <v>300</v>
       </c>
       <c r="V58" s="3">
         <v>300</v>
       </c>
       <c r="W58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y58" s="3">
         <v>200</v>
@@ -4211,162 +4478,180 @@
       <c r="AA58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F59" s="3">
         <v>4700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4727,14 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4810,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F66" s="3">
         <v>5400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-15800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-15600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-15500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-15300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-15200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-15000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-14800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-14600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-14600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-14500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-14300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-14100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-13800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-13600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-13300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-13400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-13200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-13000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-12800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-12600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-12400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-12100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-5300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-5000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-3000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-3100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-2900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-2600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-2400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,95 +6003,107 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
@@ -5723,25 +6112,25 @@
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>-200</v>
       </c>
       <c r="M81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
@@ -5756,37 +6145,43 @@
         <v>-200</v>
       </c>
       <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-200</v>
-      </c>
       <c r="X81" s="3">
         <v>-200</v>
       </c>
       <c r="Y81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6288,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,13 +6703,19 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -6312,26 +6745,26 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
@@ -6339,22 +6772,28 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6821,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6900,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7066,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6672,8 +7131,8 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -6681,17 +7140,23 @@
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
+      <c r="Y94" s="3">
+        <v>0</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,13 +7512,19 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>12100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7063,49 +7554,55 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,13 +7678,19 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>11800</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -7253,9 +7756,15 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>RGIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,126 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -862,8 +866,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,13 +1072,14 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>100</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -1136,14 +1150,17 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1284,8 +1304,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
@@ -1293,11 +1313,11 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
@@ -1305,11 +1325,14 @@
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,8 +1445,9 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1428,22 +1455,22 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1452,10 +1479,10 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1464,10 +1491,10 @@
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1476,10 +1503,10 @@
         <v>200</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>-100</v>
-      </c>
-      <c r="V17" s="3">
-        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>200</v>
@@ -1494,16 +1521,19 @@
         <v>200</v>
       </c>
       <c r="AA17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB17" s="3">
         <v>300</v>
       </c>
       <c r="AC17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,22 +1541,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
@@ -1535,10 +1565,10 @@
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
@@ -1547,11 +1577,11 @@
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>-200</v>
-      </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
@@ -1559,11 +1589,11 @@
         <v>-200</v>
       </c>
       <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
         <v>100</v>
       </c>
-      <c r="V18" s="3">
-        <v>-200</v>
-      </c>
       <c r="W18" s="3">
         <v>-200</v>
       </c>
@@ -1577,16 +1607,19 @@
         <v>-200</v>
       </c>
       <c r="AA18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AB18" s="3">
         <v>-300</v>
       </c>
       <c r="AC18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1699,8 +1733,11 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1708,20 +1745,20 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>-200</v>
-      </c>
       <c r="G21" s="3">
         <v>-200</v>
       </c>
       <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1782,8 +1819,11 @@
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,8 +1905,11 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1874,7 +1917,7 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
@@ -1886,11 +1929,11 @@
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>-200</v>
-      </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
@@ -1898,10 +1941,10 @@
         <v>-200</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
@@ -1910,11 +1953,11 @@
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>-200</v>
-      </c>
       <c r="S23" s="3">
         <v>-200</v>
       </c>
@@ -1922,11 +1965,11 @@
         <v>-200</v>
       </c>
       <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3">
-        <v>-200</v>
-      </c>
       <c r="W23" s="3">
         <v>-200</v>
       </c>
@@ -1940,16 +1983,19 @@
         <v>-200</v>
       </c>
       <c r="AA23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AB23" s="3">
         <v>-300</v>
       </c>
       <c r="AC23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,8 +2163,11 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2123,7 +2175,7 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
@@ -2135,11 +2187,11 @@
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>-200</v>
-      </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
@@ -2147,10 +2199,10 @@
         <v>-200</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
@@ -2159,11 +2211,11 @@
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>-200</v>
-      </c>
       <c r="S26" s="3">
         <v>-200</v>
       </c>
@@ -2171,11 +2223,11 @@
         <v>-200</v>
       </c>
       <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
         <v>100</v>
       </c>
-      <c r="V26" s="3">
-        <v>-200</v>
-      </c>
       <c r="W26" s="3">
         <v>-200</v>
       </c>
@@ -2189,25 +2241,28 @@
         <v>-200</v>
       </c>
       <c r="AA26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AB26" s="3">
         <v>-300</v>
       </c>
       <c r="AC26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
-        <v>-200</v>
-      </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
@@ -2218,22 +2273,22 @@
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>-200</v>
-      </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
@@ -2251,20 +2306,20 @@
         <v>-200</v>
       </c>
       <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="V27" s="3">
-        <v>-200</v>
-      </c>
       <c r="W27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y27" s="3">
         <v>-200</v>
       </c>
@@ -2272,16 +2327,19 @@
         <v>-200</v>
       </c>
       <c r="AA27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AB27" s="3">
         <v>-300</v>
       </c>
       <c r="AC27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2695,17 +2765,20 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
-        <v>-200</v>
-      </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
@@ -2716,22 +2789,22 @@
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>-200</v>
-      </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
@@ -2749,20 +2822,20 @@
         <v>-200</v>
       </c>
       <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3">
-        <v>-200</v>
-      </c>
       <c r="W33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y33" s="3">
         <v>-200</v>
       </c>
@@ -2770,16 +2843,19 @@
         <v>-200</v>
       </c>
       <c r="AA33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AB33" s="3">
         <v>-300</v>
       </c>
       <c r="AC33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,17 +2937,20 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
-        <v>-200</v>
-      </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
@@ -2882,22 +2961,22 @@
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>-200</v>
-      </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
@@ -2915,20 +2994,20 @@
         <v>-200</v>
       </c>
       <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3">
-        <v>-200</v>
-      </c>
       <c r="W35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y35" s="3">
         <v>-200</v>
       </c>
@@ -2936,104 +3015,110 @@
         <v>-200</v>
       </c>
       <c r="AA35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AB35" s="3">
         <v>-300</v>
       </c>
       <c r="AC35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,17 +3180,18 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E41" s="3">
         <v>11800</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -3172,36 +3259,39 @@
         <v>0</v>
       </c>
       <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
         <v>100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3260,8 +3350,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3325,26 +3418,29 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
+      <c r="X43" s="3">
+        <v>0</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="3">
         <v>100</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3483,25 +3582,25 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="3">
         <v>100</v>
@@ -3509,17 +3608,20 @@
       <c r="AC45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E46" s="3">
         <v>11800</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -3566,16 +3668,16 @@
         <v>0</v>
       </c>
       <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
       <c r="X46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="3">
         <v>100</v>
@@ -3584,16 +3686,19 @@
         <v>100</v>
       </c>
       <c r="AA46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB46" s="3">
         <v>200</v>
       </c>
       <c r="AC46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3673,10 +3778,13 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3758,8 +3866,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4033,8 +4153,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,17 +4296,20 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E54" s="3">
         <v>11800</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -4230,16 +4356,16 @@
         <v>0</v>
       </c>
       <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
         <v>100</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
       <c r="W54" s="3">
         <v>0</v>
       </c>
       <c r="X54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="3">
         <v>100</v>
@@ -4248,16 +4374,19 @@
         <v>100</v>
       </c>
       <c r="AA54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB54" s="3">
         <v>200</v>
       </c>
       <c r="AC54" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4448,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4327,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -4378,7 +4509,7 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>300</v>
@@ -4401,8 +4532,11 @@
       <c r="AC57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4443,7 +4577,7 @@
         <v>600</v>
       </c>
       <c r="P58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q58" s="3">
         <v>500</v>
@@ -4458,10 +4592,10 @@
         <v>500</v>
       </c>
       <c r="U58" s="3">
+        <v>500</v>
+      </c>
+      <c r="V58" s="3">
         <v>400</v>
-      </c>
-      <c r="V58" s="3">
-        <v>300</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
@@ -4470,7 +4604,7 @@
         <v>300</v>
       </c>
       <c r="Y58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z58" s="3">
         <v>200</v>
@@ -4484,174 +4618,183 @@
       <c r="AC58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E59" s="3">
         <v>17000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>3600</v>
       </c>
       <c r="N59" s="3">
         <v>3600</v>
       </c>
       <c r="O59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P59" s="3">
         <v>3500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2000</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>1800</v>
       </c>
       <c r="AA59" s="3">
         <v>1800</v>
       </c>
       <c r="AB59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AC59" s="3">
         <v>1500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E60" s="3">
         <v>17700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>4300</v>
       </c>
       <c r="N60" s="3">
         <v>4300</v>
       </c>
       <c r="O60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P60" s="3">
         <v>4100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3300</v>
-      </c>
-      <c r="U60" s="3">
-        <v>3100</v>
       </c>
       <c r="V60" s="3">
         <v>3100</v>
       </c>
       <c r="W60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="X60" s="3">
         <v>2900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4733,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E66" s="3">
         <v>17700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>4300</v>
       </c>
       <c r="N66" s="3">
         <v>4300</v>
       </c>
       <c r="O66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>3100</v>
       </c>
       <c r="V66" s="3">
         <v>3100</v>
       </c>
       <c r="W66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="X66" s="3">
         <v>2900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14800</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-14600</v>
       </c>
       <c r="N72" s="3">
         <v>-14600</v>
       </c>
       <c r="O72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="P72" s="3">
         <v>-14500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-13200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-12800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-12600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-12400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-12100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-4300</v>
       </c>
       <c r="N76" s="3">
         <v>-4300</v>
       </c>
       <c r="O76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="P76" s="3">
         <v>-4100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,105 +6198,111 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
-        <v>-200</v>
-      </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
@@ -6118,22 +6313,22 @@
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>-200</v>
-      </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
@@ -6151,20 +6346,20 @@
         <v>-200</v>
       </c>
       <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3">
-        <v>-200</v>
-      </c>
       <c r="W81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y81" s="3">
         <v>-200</v>
       </c>
@@ -6172,16 +6367,19 @@
         <v>-200</v>
       </c>
       <c r="AA81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AB81" s="3">
         <v>-300</v>
       </c>
       <c r="AC81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,17 +6923,20 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -6751,11 +6968,11 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -6763,11 +6980,11 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
@@ -6778,22 +6995,25 @@
         <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="3">
         <v>-100</v>
       </c>
       <c r="AA89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AC89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7137,14 +7367,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>4</v>
@@ -7152,11 +7382,14 @@
       <c r="AB94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,17 +7761,20 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E100" s="3">
         <v>12100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -7560,11 +7806,11 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -7572,13 +7818,13 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -7587,11 +7833,11 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
@@ -7601,8 +7847,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,17 +7933,20 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>11800</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -7762,9 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
     </row>
